--- a/train_record.xlsx
+++ b/train_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>data manipulation done</t>
   </si>
@@ -62,12 +62,6 @@
     <t>outlier</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>sqrt</t>
-  </si>
-  <si>
     <t>Good_Neighborhood</t>
   </si>
   <si>
@@ -75,13 +69,16 @@
   </si>
   <si>
     <t>cat MSSubClass</t>
+  </si>
+  <si>
+    <t>num multiple vars</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +91,22 @@
       <color theme="1"/>
       <name val="Monaco"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,8 +126,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -129,7 +154,19 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G17" sqref="D2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,7 +457,7 @@
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -428,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -436,7 +473,7 @@
         <v>0.141108587344</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -444,14 +481,12 @@
         <v>0.14084917594099999</v>
       </c>
       <c r="C3">
-        <f>B3/B2</f>
+        <f t="shared" ref="C3:C11" si="0">B3/B2</f>
         <v>0.9981616185954183</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.109281716864</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -459,17 +494,12 @@
         <v>0.140747101126</v>
       </c>
       <c r="C4">
-        <f>B4/B3</f>
+        <f t="shared" si="0"/>
         <v>0.99927528993820491</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.109709456796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -477,21 +507,12 @@
         <v>0.14070231169799999</v>
       </c>
       <c r="C5">
-        <f>B5/B4</f>
+        <f t="shared" si="0"/>
         <v>0.99968177370871802</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.10970946981099999</v>
-      </c>
-      <c r="F5">
-        <f>E4/B10</f>
-        <v>0.99935319884697649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -499,11 +520,11 @@
         <v>0.140702234211</v>
       </c>
       <c r="C6">
-        <f>B6/B5</f>
+        <f t="shared" si="0"/>
         <v>0.99999944928410167</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -511,14 +532,11 @@
         <v>0.134769663319</v>
       </c>
       <c r="C7">
-        <f>B7/B6</f>
+        <f t="shared" si="0"/>
         <v>0.9578359865764221</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -526,11 +544,11 @@
         <v>0.131831693349</v>
       </c>
       <c r="C8">
-        <f>B8/B7</f>
+        <f t="shared" si="0"/>
         <v>0.97820006448301478</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -538,11 +556,11 @@
         <v>0.13043893492299999</v>
       </c>
       <c r="C9">
-        <f>B9/B8</f>
+        <f t="shared" si="0"/>
         <v>0.9894353293155923</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -550,135 +568,142 @@
         <v>0.10978046292599999</v>
       </c>
       <c r="C10">
-        <f>B10/B9</f>
+        <f t="shared" si="0"/>
         <v>0.84162342318116146</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>0.109281716864</v>
       </c>
       <c r="C11">
-        <f>B11/B10</f>
+        <f t="shared" si="0"/>
         <v>0.99545687776579894</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>0.109281716864</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C27" si="0">B12/B11</f>
+        <f t="shared" ref="C12:C27" si="1">B12/B11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>0.10910623371</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99839421305744691</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.108847151414</v>
+      </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>0.99762541252511172</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C21" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C22" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C23" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C24" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C26" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
